--- a/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,1585 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.59</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2245,13 +2288,727 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002075</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +532,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002075</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2193,13 +2847,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,36 +2904,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9221</t>
+          <t>0.0284</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2288,32 +2942,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>99.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1737</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2326,690 +2980,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1239</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001656</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银汇理中国优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1062</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008682</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0739</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001939</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>光大保德信睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>22.58</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002075</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>光大保德信睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>22.58</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009649</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>63.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009387</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>42.03</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009650</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实精选平衡混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>63.68</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009388</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实稳福混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>42.03</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.84</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>2.59</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -532,6 +549,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1271,7 +1686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2847,7 +3262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000090-天健集团.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.84</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.59</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -549,6 +566,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1686,7 +1911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3262,7 +3487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
